--- a/train_test_split_counts.xlsx
+++ b/train_test_split_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\sz-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49398310-109D-449C-ABAC-3C08D3878E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D495A7-A4E4-4118-A2FA-5FFF2BBD843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="1050" windowWidth="21600" windowHeight="11265" xr2:uid="{6CD0A3DB-148E-4729-A139-CE8BDA910EE1}"/>
+    <workbookView xWindow="4785" yWindow="2400" windowWidth="21600" windowHeight="11265" xr2:uid="{6CD0A3DB-148E-4729-A139-CE8BDA910EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -274,10 +274,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,9 +335,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,60 +344,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +673,7 @@
   <dimension ref="A2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,142 +689,142 @@
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="3"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="11" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="6">
         <v>448391</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <v>13135</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="7">
         <v>1830</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="7">
         <v>2894</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="7">
         <v>3206</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>16029</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="11">
         <f>C6+E6</f>
         <v>16029</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="10">
         <f>E6/D6</f>
         <v>1.5814207650273224</v>
       </c>
@@ -830,33 +833,33 @@
         <v>0.90268247036805993</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="15">
+      <c r="L6" s="6">
         <v>2638634</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="7">
         <v>98888</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="7">
         <v>4149</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="7">
         <v>5355</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="7">
         <v>20849</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="10">
         <v>104243</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="11">
         <f>M6+O6</f>
         <v>104243</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="14">
         <f>O6/N6</f>
         <v>1.2906724511930585</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="15">
         <f>O6/P6</f>
         <v>0.25684685116792172</v>
       </c>
@@ -865,29 +868,29 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>447269</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>12177</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="7">
         <v>2952</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="7">
         <v>2590</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="7">
         <v>2953</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="10">
         <v>14767</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H11" si="0">C7+E7</f>
         <v>14767</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="10">
         <f t="shared" ref="I7:I13" si="1">E7/D7</f>
         <v>0.87737127371273715</v>
       </c>
@@ -896,33 +899,33 @@
         <v>0.87707416186928544</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="15">
+      <c r="L7" s="6">
         <v>2637462</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="7">
         <v>38800</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="7">
         <v>5321</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="7">
         <v>5301</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="7">
         <v>8820</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="10">
         <v>44101</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="11">
         <f t="shared" ref="R7:R12" si="3">M7+O7</f>
         <v>44101</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="14">
         <f t="shared" ref="S7:S12" si="4">O7/N7</f>
         <v>0.99624130802480737</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="14">
         <f t="shared" ref="T7:T13" si="5">O7/P7</f>
         <v>0.6010204081632653</v>
       </c>
@@ -931,45 +934,45 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="10"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="15">
+      <c r="L8" s="6">
         <v>2642307</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="7">
         <v>1873</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="7">
         <v>476</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="7">
         <v>248</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="7">
         <v>424</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="10">
         <v>2121</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="11">
         <f t="shared" si="3"/>
         <v>2121</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="15">
         <f t="shared" si="4"/>
         <v>0.52100840336134457</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="15">
         <f t="shared" si="5"/>
         <v>0.58490566037735847</v>
       </c>
@@ -978,29 +981,29 @@
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="6">
         <v>448854</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>4954</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="7">
         <v>1367</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="7">
         <v>1269</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="7">
         <v>1245</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>6223</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>6223</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
         <v>0.92831016825164592</v>
       </c>
@@ -1009,33 +1012,33 @@
         <v>1.0192771084337349</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="15">
+      <c r="L9" s="6">
         <v>2637121</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="7">
         <v>24646</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="7">
         <v>5662</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="7">
         <v>4237</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="7">
         <v>5777</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="10">
         <v>28883</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="11">
         <f t="shared" si="3"/>
         <v>28883</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="14">
         <f t="shared" si="4"/>
         <v>0.74832214765100669</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="14">
         <f t="shared" si="5"/>
         <v>0.73342565345334954</v>
       </c>
@@ -1044,53 +1047,53 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15">
-        <v>449980</v>
-      </c>
-      <c r="C10" s="16">
-        <v>781</v>
-      </c>
-      <c r="D10" s="16">
-        <v>241</v>
-      </c>
-      <c r="E10" s="16">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="B10" s="6">
+        <v>449132</v>
+      </c>
+      <c r="C10" s="7">
+        <v>654</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1089</v>
+      </c>
+      <c r="E10" s="7">
+        <v>139</v>
+      </c>
+      <c r="F10" s="7">
         <v>158</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>793</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>793</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="17">
         <f>E10/D10</f>
-        <v>4.9792531120331947E-2</v>
-      </c>
-      <c r="J10" s="29">
+        <v>0.12764003673094582</v>
+      </c>
+      <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>7.5949367088607597E-2</v>
+        <v>0.879746835443038</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16">
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
         <v>3</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="10">
         <v>14</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1099,45 +1102,45 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="15">
+      <c r="L11" s="6">
         <v>2642554</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="7">
         <v>1106</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="7">
         <v>229</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="7">
         <v>69</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="7">
         <v>235</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="10">
         <v>1175</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="11">
         <f t="shared" si="3"/>
         <v>1175</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="15">
         <f t="shared" si="4"/>
         <v>0.30131004366812225</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="15">
         <f t="shared" si="5"/>
         <v>0.29361702127659572</v>
       </c>
@@ -1146,29 +1149,29 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="6">
         <v>449498</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="7">
         <v>2747</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="7">
         <v>723</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="7">
         <v>542</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="7">
         <v>658</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>3289</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="11">
         <f>C12+E12</f>
         <v>3289</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="10">
         <f t="shared" si="1"/>
         <v>0.74965421853388658</v>
       </c>
@@ -1177,33 +1180,33 @@
         <v>0.82370820668693012</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="15">
+      <c r="L12" s="6">
         <v>2642266</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="7">
         <v>1802</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="7">
         <v>517</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="7">
         <v>436</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="7">
         <v>448</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="10">
         <v>2238</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="11">
         <f t="shared" si="3"/>
         <v>2238</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="14">
         <f t="shared" si="4"/>
         <v>0.84332688588007731</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="14">
         <f t="shared" si="5"/>
         <v>0.9732142857142857</v>
       </c>
@@ -1212,53 +1215,53 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17">
-        <v>450219</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="8">
+        <v>449593</v>
+      </c>
+      <c r="C13" s="9">
         <v>686</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="9">
+        <v>628</v>
+      </c>
+      <c r="E13" s="9">
         <v>606</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="9">
         <v>258</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="12">
         <v>1292</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="13">
         <f>E13+C13</f>
         <v>1292</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="30">
         <f t="shared" si="1"/>
-        <v>303</v>
-      </c>
-      <c r="J13" s="29">
+        <v>0.96496815286624205</v>
+      </c>
+      <c r="J13" s="18">
         <f t="shared" si="2"/>
         <v>2.3488372093023258</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
         <v>4</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="12">
         <v>19</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="13">
         <f>M13+O13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
